--- a/ClinicaMedica/Modelagem/Fisico.xlsx
+++ b/ClinicaMedica/Modelagem/Fisico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49826159859\Documents\trabalhos\ClinicaMedica\Modelagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49826159859\Documents\trabalhos\Senai_spmedgroup_sprint1_bd_manha_HenriqueBarbosa\ClinicaMedica\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73044D8-B6A4-4689-A264-D4F489BCC022}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32943A93-22C1-4799-9F0B-D08C3F15FDFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{D2181A78-499D-4FED-9E5C-CF39291AA3FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
   <si>
     <t>TipoMedico</t>
   </si>
@@ -268,6 +268,27 @@
   </si>
   <si>
     <t>Necessidade Canal</t>
+  </si>
+  <si>
+    <t>Id_Genero</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Generos</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Feminino</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Fk_Generos</t>
   </si>
 </sst>
 </file>
@@ -297,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +448,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,78 +523,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -884,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5B1D54-5B28-4F78-8174-897D06E54BF2}">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,6 +932,7 @@
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" customWidth="1"/>
@@ -902,8 +940,9 @@
     <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.33203125" customWidth="1"/>
     <col min="20" max="20" width="17.77734375" bestFit="1" customWidth="1"/>
@@ -916,595 +955,668 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="G1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="R1" s="19" t="s">
+      <c r="B1" s="24"/>
+      <c r="G1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="J1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="35"/>
+      <c r="R1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="21"/>
-      <c r="Z1" s="31" t="s">
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="31"/>
+      <c r="Z1" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="32"/>
+      <c r="AA1" s="23"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="22" t="s">
+      <c r="H2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="Z2" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AA2" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="37">
-        <v>1</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="36" t="s">
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="23">
-        <v>1</v>
-      </c>
-      <c r="S3" s="23" t="s">
+      <c r="J3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3" s="12">
+        <v>1</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="U3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="V3" s="24">
+      <c r="V3" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="W3" s="24">
+      <c r="W3" s="13">
         <v>0.83333333333333337</v>
       </c>
-      <c r="Z3" s="34">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="34" t="s">
+      <c r="Z3" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="37">
-        <v>2</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="10">
-        <v>2</v>
-      </c>
-      <c r="H4" s="36" t="s">
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="34">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="34" t="s">
+      <c r="J4" s="38">
+        <v>2</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z4" s="18">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="18" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="37">
-        <v>3</v>
-      </c>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="10">
-        <v>3</v>
-      </c>
-      <c r="H5" s="36" t="s">
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="Z5" s="34">
-        <v>3</v>
-      </c>
-      <c r="AA5" s="34" t="s">
+      <c r="J5" s="38">
+        <v>3</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z5" s="18">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="G7" s="11" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="G7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="E8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="P8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="27"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="34"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="40">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>2345678</v>
       </c>
-      <c r="D9" s="7">
-        <v>2</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="15" t="s">
+      <c r="D9" s="40">
+        <v>2</v>
+      </c>
+      <c r="E9" s="40">
+        <v>2</v>
+      </c>
+      <c r="G9" s="41">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="8">
         <v>46807412345</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="9">
         <v>34702</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="7">
         <v>11961585953</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="15">
-        <v>3</v>
-      </c>
-      <c r="R9" s="28" t="s">
+      <c r="O9" s="37">
+        <v>3</v>
+      </c>
+      <c r="P9" s="37">
+        <v>1</v>
+      </c>
+      <c r="R9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="28" t="s">
+      <c r="S9" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="T9" s="28" t="s">
+      <c r="T9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="U9" s="28" t="s">
+      <c r="U9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="V9" s="28" t="s">
+      <c r="V9" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="W9" s="28" t="s">
+      <c r="W9" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="X9" s="28" t="s">
+      <c r="X9" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="40">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>4312332</v>
       </c>
-      <c r="D10" s="7">
-        <v>3</v>
-      </c>
-      <c r="G10" s="15">
+      <c r="D10" s="40">
+        <v>3</v>
+      </c>
+      <c r="E10" s="40">
+        <v>1</v>
+      </c>
+      <c r="G10" s="41">
         <f>G9+1</f>
         <v>2</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="8">
         <v>45623479990</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="9">
         <v>32635</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="7">
         <v>11982395849</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="15">
-        <v>3</v>
-      </c>
-      <c r="R10" s="29">
-        <v>1</v>
-      </c>
-      <c r="S10" s="30" t="s">
+      <c r="O10" s="37">
+        <v>3</v>
+      </c>
+      <c r="P10" s="37">
+        <v>1</v>
+      </c>
+      <c r="R10" s="15">
+        <v>1</v>
+      </c>
+      <c r="S10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29">
-        <v>1</v>
-      </c>
-      <c r="V10" s="29">
-        <v>3</v>
-      </c>
-      <c r="W10" s="29">
-        <v>1</v>
-      </c>
-      <c r="X10" s="29">
+      <c r="T10" s="15"/>
+      <c r="U10" s="15">
+        <v>1</v>
+      </c>
+      <c r="V10" s="15">
+        <v>3</v>
+      </c>
+      <c r="W10" s="15">
+        <v>1</v>
+      </c>
+      <c r="X10" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>3</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="40">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <v>1233212</v>
       </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15">
+      <c r="D11" s="40">
+        <v>1</v>
+      </c>
+      <c r="E11" s="40">
+        <v>3</v>
+      </c>
+      <c r="G11" s="41">
         <f>G10+1</f>
         <v>3</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="8">
         <v>31257875531</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="9">
         <v>32150</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="7">
         <v>11929394959</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="15">
-        <v>3</v>
-      </c>
-      <c r="R11" s="29">
-        <v>2</v>
-      </c>
-      <c r="S11" s="29" t="s">
+      <c r="O11" s="37">
+        <v>3</v>
+      </c>
+      <c r="P11" s="37">
+        <v>2</v>
+      </c>
+      <c r="R11" s="15">
+        <v>2</v>
+      </c>
+      <c r="S11" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29">
-        <v>1</v>
-      </c>
-      <c r="V11" s="29">
-        <v>2</v>
-      </c>
-      <c r="W11" s="29">
-        <v>1</v>
-      </c>
-      <c r="X11" s="29">
+      <c r="T11" s="15"/>
+      <c r="U11" s="15">
+        <v>1</v>
+      </c>
+      <c r="V11" s="15">
+        <v>2</v>
+      </c>
+      <c r="W11" s="15">
+        <v>1</v>
+      </c>
+      <c r="X11" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="40">
         <v>4</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>1233321</v>
       </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15">
-        <f t="shared" ref="G12:G15" si="0">G11+1</f>
+      <c r="D12" s="40">
+        <v>1</v>
+      </c>
+      <c r="E12" s="40">
         <v>4</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="41">
+        <f t="shared" ref="G12:G14" si="0">G11+1</f>
+        <v>4</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="8">
         <v>12312321312</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="9">
         <v>34064</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="7">
         <v>11929394955</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="15">
-        <v>3</v>
-      </c>
-      <c r="R12" s="29">
-        <v>3</v>
-      </c>
-      <c r="S12" s="29" t="s">
+      <c r="O12" s="37">
+        <v>3</v>
+      </c>
+      <c r="P12" s="37">
+        <v>2</v>
+      </c>
+      <c r="R12" s="15">
+        <v>3</v>
+      </c>
+      <c r="S12" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T12" s="29" t="s">
+      <c r="T12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="U12" s="29">
-        <v>1</v>
-      </c>
-      <c r="V12" s="29">
+      <c r="U12" s="15">
+        <v>1</v>
+      </c>
+      <c r="V12" s="15">
         <v>4</v>
       </c>
-      <c r="W12" s="29">
-        <v>1</v>
-      </c>
-      <c r="X12" s="29">
+      <c r="W12" s="15">
+        <v>1</v>
+      </c>
+      <c r="X12" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="G13" s="15">
+      <c r="G13" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="8">
         <v>13578887788</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="9">
         <v>36984</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="7">
         <v>11928398231</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="15">
-        <v>1</v>
-      </c>
-      <c r="R13" s="29">
+      <c r="O13" s="37">
+        <v>1</v>
+      </c>
+      <c r="P13" s="37">
+        <v>3</v>
+      </c>
+      <c r="R13" s="15">
         <v>4</v>
       </c>
-      <c r="S13" s="29" t="s">
+      <c r="S13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29">
-        <v>1</v>
-      </c>
-      <c r="V13" s="29">
-        <v>1</v>
-      </c>
-      <c r="W13" s="29">
-        <v>1</v>
-      </c>
-      <c r="X13" s="29">
+      <c r="T13" s="15"/>
+      <c r="U13" s="15">
+        <v>1</v>
+      </c>
+      <c r="V13" s="15">
+        <v>1</v>
+      </c>
+      <c r="W13" s="15">
+        <v>1</v>
+      </c>
+      <c r="X13" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="G14" s="15">
+      <c r="G14" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="8">
         <v>34543545354</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="9">
         <v>36984</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="7">
         <v>11392829832</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="15">
-        <v>2</v>
-      </c>
-      <c r="R14" s="29">
+      <c r="O14" s="37">
+        <v>2</v>
+      </c>
+      <c r="P14" s="37">
+        <v>1</v>
+      </c>
+      <c r="R14" s="15">
         <v>5</v>
       </c>
-      <c r="S14" s="30" t="s">
+      <c r="S14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29">
-        <v>1</v>
-      </c>
-      <c r="V14" s="29">
-        <v>2</v>
-      </c>
-      <c r="W14" s="29">
-        <v>1</v>
-      </c>
-      <c r="X14" s="29">
+      <c r="T14" s="15"/>
+      <c r="U14" s="15">
+        <v>1</v>
+      </c>
+      <c r="V14" s="15">
+        <v>2</v>
+      </c>
+      <c r="W14" s="15">
+        <v>1</v>
+      </c>
+      <c r="X14" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="G15" s="15">
+      <c r="G15" s="41">
         <v>7</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="8">
         <v>39348172391</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="9">
         <v>35437</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="7">
         <v>11994837284</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="M15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O15" s="15">
-        <v>1</v>
-      </c>
+      <c r="O15" s="37">
+        <v>1</v>
+      </c>
+      <c r="P15" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="R8:X8"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="G7:P7"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A7:D7"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G7:O7"/>
     <mergeCell ref="R1:W1"/>
-    <mergeCell ref="R8:X8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1" xr:uid="{D72F7A71-928F-4E2A-9FFC-D65DE2BA744E}"/>
